--- a/docs/Tidplan.xlsx
+++ b/docs/Tidplan.xlsx
@@ -30,7 +30,7 @@
     <t>Projektgrupp:</t>
   </si>
   <si>
-    <t>Skriv gruppen här</t>
+    <t>J. Gustafsson, A. Brattström</t>
   </si>
   <si>
     <t>Datum:</t>
@@ -81,7 +81,7 @@
     <t>Beskrivning</t>
   </si>
   <si>
-    <t>timmar</t>
+    <t>Minuter</t>
   </si>
   <si>
     <t>Initialer</t>
@@ -931,7 +931,7 @@
   <dimension ref="A1:AX28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1474,11 +1474,11 @@
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="35"/>
       <c r="Z8" s="35" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
@@ -1606,7 +1606,7 @@
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
@@ -1671,12 +1671,14 @@
       <c r="X11" s="43"/>
       <c r="Y11" s="43"/>
       <c r="Z11" s="43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="43"/>
+        <v>15</v>
+      </c>
+      <c r="AB11" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="AC11" s="43"/>
       <c r="AD11" s="44"/>
       <c r="AE11" s="44"/>
@@ -1736,10 +1738,10 @@
       <c r="X12" s="43"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
-      <c r="AA12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43" t="n">
+        <v>30</v>
+      </c>
       <c r="AC12" s="43"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="44"/>
@@ -1815,18 +1817,10 @@
       <c r="W13" s="43"/>
       <c r="X13" s="43"/>
       <c r="Y13" s="43"/>
-      <c r="Z13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="44"/>
@@ -1889,7 +1883,7 @@
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
       <c r="AB14" s="43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="43"/>
       <c r="AD14" s="44"/>
@@ -1954,7 +1948,7 @@
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="43" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="43"/>
       <c r="AD15" s="44"/>
@@ -2036,7 +2030,7 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="43"/>
       <c r="AC16" s="43" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="44"/>
       <c r="AE16" s="44"/>
@@ -2171,13 +2165,13 @@
       <c r="T18" s="50"/>
       <c r="U18" s="50"/>
       <c r="V18" s="50" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W18" s="50" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X18" s="50" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Y18" s="50"/>
       <c r="Z18" s="50"/>
@@ -2725,15 +2719,15 @@
       </c>
       <c r="V27" s="62" t="n">
         <f aca="false">SUM(V8:V26)</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W27" s="62" t="n">
         <f aca="false">SUM(W8:W26)</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X27" s="62" t="n">
         <f aca="false">SUM(X8:X26)</f>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="62" t="n">
         <f aca="false">SUM(Y8:Y26)</f>
@@ -2741,19 +2735,19 @@
       </c>
       <c r="Z27" s="62" t="n">
         <f aca="false">SUM(Z8:Z26)</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="62" t="n">
         <f aca="false">SUM(AA8:AA26)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="62" t="n">
         <f aca="false">SUM(AB8:AB26)</f>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="AC27" s="62" t="n">
         <f aca="false">SUM(AC8:AC26)</f>
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="AD27" s="62" t="n">
         <f aca="false">SUM(AD8:AD26)</f>
@@ -3845,12 +3839,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F26;F9:F15">
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F9:F14">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -3860,13 +3854,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F14">
+  <conditionalFormatting sqref="F8">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4022,7 +4011,7 @@
       <c r="C3" s="67"/>
       <c r="D3" s="8" t="str">
         <f aca="false">Basplan!D3</f>
-        <v>Skriv gruppen här</v>
+        <v>J. Gustafsson, A. Brattström</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -4477,15 +4466,15 @@
       </c>
       <c r="V8" s="43" t="n">
         <f aca="false">Basplan!V27</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W8" s="43" t="n">
         <f aca="false">Basplan!W27</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X8" s="43" t="n">
         <f aca="false">Basplan!X27</f>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="43" t="n">
         <f aca="false">Basplan!Y27</f>
@@ -4493,19 +4482,19 @@
       </c>
       <c r="Z8" s="43" t="n">
         <f aca="false">Basplan!Z27</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="AA8" s="43" t="n">
         <f aca="false">Basplan!AA27</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="43" t="n">
         <f aca="false">Basplan!AB27</f>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="AC8" s="43" t="n">
         <f aca="false">Basplan!AC27</f>
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="AD8" s="43" t="n">
         <f aca="false">Basplan!AD27</f>
@@ -4585,7 +4574,7 @@
       </c>
       <c r="AW8" s="38" t="n">
         <f aca="false">IF(SUM(H8:AV8)&lt;&gt;0,SUM(H8:AV8),"")</f>
-        <v>19</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8727,15 +8716,15 @@
       </c>
       <c r="V32" s="76" t="n">
         <f aca="false">IF(SUM(V8:V31)&lt;&gt;0,SUM(V8:V31),"")</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="W32" s="76" t="n">
         <f aca="false">IF(SUM(W8:W31)&lt;&gt;0,SUM(W8:W31),"")</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="X32" s="76" t="n">
         <f aca="false">IF(SUM(X8:X31)&lt;&gt;0,SUM(X8:X31),"")</f>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Y32" s="76" t="str">
         <f aca="false">IF(SUM(Y8:Y31)&lt;&gt;0,SUM(Y8:Y31),"")</f>
@@ -8743,19 +8732,19 @@
       </c>
       <c r="Z32" s="76" t="n">
         <f aca="false">IF(SUM(Z8:Z31)&lt;&gt;0,SUM(Z8:Z31),"")</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="AA32" s="76" t="n">
         <f aca="false">IF(SUM(AA8:AA31)&lt;&gt;0,SUM(AA8:AA31),"")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB32" s="76" t="n">
         <f aca="false">IF(SUM(AB8:AB31)&lt;&gt;0,SUM(AB8:AB31),"")</f>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="AC32" s="76" t="n">
         <f aca="false">IF(SUM(AC8:AC31)&lt;&gt;0,SUM(AC8:AC31),"")</f>
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="AD32" s="76" t="str">
         <f aca="false">IF(SUM(AD8:AD31)&lt;&gt;0,SUM(AD8:AD31),"")</f>
@@ -8835,7 +8824,7 @@
       </c>
       <c r="AW32" s="27" t="n">
         <f aca="false">SUM(AW8:AW31)</f>
-        <v>19</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/docs/Tidplan.xlsx
+++ b/docs/Tidplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>PLANERING</t>
   </si>
@@ -90,13 +90,13 @@
     <t>Insamling av projektmaterial, inköpsplanering</t>
   </si>
   <si>
-    <t>EE</t>
+    <t>JG och AB</t>
   </si>
   <si>
     <t>Skriva kravspec</t>
   </si>
   <si>
-    <t>?</t>
+    <t>JG</t>
   </si>
   <si>
     <t>Skriva projektplan</t>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Skapa systemskiss</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
   <si>
     <t>Skriva rapport</t>
@@ -931,7 +934,7 @@
   <dimension ref="A1:AX28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1450,7 +1453,7 @@
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>24</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="42" t="n">
         <v>0</v>
@@ -1540,9 +1543,7 @@
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
-      <c r="Z9" s="43" t="s">
-        <v>26</v>
-      </c>
+      <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
       <c r="AC9" s="43"/>
@@ -1578,10 +1579,10 @@
       <c r="D10" s="40"/>
       <c r="E10" s="41"/>
       <c r="F10" s="32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="43" t="n">
@@ -1643,10 +1644,10 @@
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
       <c r="F11" s="32" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="43" t="n">
@@ -1712,10 +1713,10 @@
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
       <c r="F12" s="32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="43"/>
@@ -1770,13 +1771,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>24</v>
@@ -1847,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
       <c r="F14" s="32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>24</v>
@@ -1912,16 +1913,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41"/>
       <c r="F15" s="32" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="43"/>
@@ -1977,13 +1978,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="41"/>
       <c r="F16" s="32" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>24</v>
@@ -2058,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -2123,13 +2124,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="41"/>
       <c r="F18" s="32" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>24</v>
@@ -2595,14 +2596,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="41"/>
       <c r="F26" s="32" t="n">
-        <f aca="false">SUM(H26:AV26)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="57"/>
@@ -2627,7 +2627,7 @@
       <c r="AA26" s="58"/>
       <c r="AB26" s="58"/>
       <c r="AC26" s="58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD26" s="59"/>
       <c r="AE26" s="59"/>
@@ -2653,13 +2653,13 @@
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24"/>
       <c r="B27" s="61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
       <c r="E27" s="41"/>
       <c r="F27" s="27" t="n">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="62" t="n">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="AC27" s="62" t="n">
         <f aca="false">SUM(AC8:AC26)</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AD27" s="62" t="n">
         <f aca="false">SUM(AD8:AD26)</f>
@@ -3896,7 +3896,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -4199,7 +4199,7 @@
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
       <c r="H6" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -4246,7 +4246,7 @@
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4395,13 +4395,13 @@
         <v>23</v>
       </c>
       <c r="AW7" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
       <c r="B8" s="73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="AC8" s="43" t="n">
         <f aca="false">Basplan!AC27</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="43" t="n">
         <f aca="false">Basplan!AD27</f>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AW8" s="38" t="n">
         <f aca="false">IF(SUM(H8:AV8)&lt;&gt;0,SUM(H8:AV8),"")</f>
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8651,7 +8651,7 @@
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
       <c r="B32" s="75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="75"/>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="AC32" s="76" t="n">
         <f aca="false">IF(SUM(AC8:AC31)&lt;&gt;0,SUM(AC8:AC31),"")</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AD32" s="76" t="str">
         <f aca="false">IF(SUM(AD8:AD31)&lt;&gt;0,SUM(AD8:AD31),"")</f>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="AW32" s="27" t="n">
         <f aca="false">SUM(AW8:AW31)</f>
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
